--- a/biology/Zoologie/Conure_magellanique/Conure_magellanique.xlsx
+++ b/biology/Zoologie/Conure_magellanique/Conure_magellanique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enicognathus ferrugineus
 La Conure magellanique (Enicognathus ferrugineus) est une espèce d'oiseaux de la famille des Psittacidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 33 cm. Il ressemble à la Conure à long bec mais s'en distingue par l'absence de rouge sur le front, des écailles plus sombres et plus étendues au niveau des plumes vertes de la calotte et du dos et surtout par un bec de forme classique pour la famille des Psittacidae.
 </t>
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Conure magellanique est représentée par deux sous-espèces :
 ferrugineus ;
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette conure vit au Chili et en Argentine (jusqu'à la Terre de Feu et les Iles Malouines).
 </t>
